--- a/src/test/resources/Documents/33241/Base/JobMaterial.xlsx
+++ b/src/test/resources/Documents/33241/Base/JobMaterial.xlsx
@@ -83,21 +83,21 @@
     <t>Sheet-fed Press F 4x0</t>
   </si>
   <si>
+    <t xml:space="preserve">Black - Sheet-fed Offset UV - </t>
+  </si>
+  <si>
+    <t>0.92</t>
+  </si>
+  <si>
+    <t>lbs</t>
+  </si>
+  <si>
+    <t>2006 - UV Process Ink SF</t>
+  </si>
+  <si>
     <t xml:space="preserve">Magenta - Sheet-fed Offset UV - </t>
   </si>
   <si>
-    <t>0.92</t>
-  </si>
-  <si>
-    <t>lbs</t>
-  </si>
-  <si>
-    <t>2006 - UV Process Ink SF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black - Sheet-fed Offset UV - </t>
-  </si>
-  <si>
     <t xml:space="preserve">Cyan - Sheet-fed Offset UV - </t>
   </si>
   <si>
@@ -116,13 +116,13 @@
     <t>Pallet</t>
   </si>
   <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>602612 - Pallets - 40 x 48 4way</t>
+  </si>
+  <si>
     <t>1.00</t>
-  </si>
-  <si>
-    <t>602612 - Pallets - 40 x 48 4way</t>
-  </si>
-  <si>
-    <t>2.00</t>
   </si>
   <si>
     <t>Plate</t>
@@ -1191,7 +1191,7 @@
         <v>22</v>
       </c>
       <c r="D8" t="s" s="53">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s" s="54">
         <v>31</v>
@@ -1217,7 +1217,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="s" s="61">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s" s="62">
         <v>31</v>
@@ -1243,7 +1243,7 @@
         <v>22</v>
       </c>
       <c r="D10" t="s" s="69">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s" s="70">
         <v>31</v>
@@ -1269,7 +1269,7 @@
         <v>22</v>
       </c>
       <c r="D11" t="s" s="77">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s" s="78">
         <v>31</v>
@@ -1289,7 +1289,7 @@
         <v>32</v>
       </c>
       <c r="B12" t="s" s="83">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s" s="84">
         <v>33</v>
@@ -1315,7 +1315,7 @@
         <v>32</v>
       </c>
       <c r="B13" t="s" s="91">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s" s="92">
         <v>33</v>
